--- a/labturisme_2021/documents/Dades-infografia-anual-mapa-turisme-rural.xlsx
+++ b/labturisme_2021/documents/Dades-infografia-anual-mapa-turisme-rural.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisa/Desktop/EXCELS ANUAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisa/Downloads/labturisme_2021/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08CE561-360A-184F-942D-A5BF7B76A6D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B291F0-DCB5-4E4D-A8D8-692AB4F86946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="740" windowWidth="20200" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,20 +65,20 @@
     <t>Var. Inter.Ocu 19 (en pp)</t>
   </si>
   <si>
-    <t>POSICIONAMENT ESTABLIMENTS TURISME RURAL DESEMBRE 2021</t>
-  </si>
-  <si>
     <t>nd</t>
   </si>
   <si>
     <t>ND</t>
+  </si>
+  <si>
+    <t>POSICIONAMENT ESTABLIMENTS TURISME RURAL  2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -119,6 +119,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="HelveticaNeue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +154,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -173,6 +178,7 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,11 +401,11 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
@@ -411,21 +417,21 @@
     <col min="9" max="10" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="13">
       <c r="A3" s="6"/>
       <c r="B3" s="10" t="s">
         <v>0</v>
@@ -456,7 +462,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -488,39 +494,39 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="16">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -552,7 +558,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -574,39 +580,39 @@
       <c r="G7" s="12">
         <v>-0.221</v>
       </c>
-      <c r="H7" s="5">
-        <v>40.1</v>
+      <c r="H7" s="13">
+        <v>20.5</v>
       </c>
       <c r="I7" s="5">
-        <v>21.6</v>
+        <v>2.1</v>
       </c>
       <c r="J7" s="5">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -619,7 +625,7 @@
       <c r="J12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -632,7 +638,7 @@
       <c r="J13"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -645,7 +651,7 @@
       <c r="J14"/>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -658,7 +664,7 @@
       <c r="J15"/>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -671,7 +677,7 @@
       <c r="J16"/>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -684,7 +690,7 @@
       <c r="J17"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -697,7 +703,7 @@
       <c r="J18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -710,7 +716,7 @@
       <c r="J19"/>
       <c r="K19"/>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -723,7 +729,7 @@
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -736,7 +742,7 @@
       <c r="J21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -764,9 +770,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
